--- a/experiments/20110203_clustering_with_recent_links/Results.xlsx
+++ b/experiments/20110203_clustering_with_recent_links/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="4060" windowWidth="21600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="5240" yWindow="3160" windowWidth="21600" windowHeight="15260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2216,6 +2216,10 @@
       <c r="H64">
         <v>0.61160000000000003</v>
       </c>
+      <c r="I64">
+        <f>AVERAGE(H50:H64)</f>
+        <v>0.58395333333333321</v>
+      </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
